--- a/cicada_generator/lib/WHO/schedule/WHO Coded Observations.xlsx
+++ b/cicada_generator/lib/WHO/schedule/WHO Coded Observations.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="54">
   <si>
     <t xml:space="preserve">Observation Code</t>
   </si>
@@ -135,18 +135,58 @@
   </si>
   <si>
     <t xml:space="preserve">Laboratory evidence of Measles immunity (365861007)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Healthcare worker</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Patient is a healthcare worker with occupational exposure risk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">n/a</t>
+  </si>
+  <si>
+    <t xml:space="preserve">223366009</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Older adult 60+ years</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Patient is an older adult (60 years or older)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">105436006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Immunocompromised individual</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Patient is immunocompromised</t>
+  </si>
+  <si>
+    <t xml:space="preserve">370388006</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
+    <font/>
     <font/>
   </fonts>
   <fills count="2">
@@ -163,11 +203,13 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -629,6 +671,84 @@
         <v>11</v>
       </c>
     </row>
+    <row r="10">
+      <c r="A10" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/cicada_generator/lib/WHO/schedule/WHO Coded Observations.xlsx
+++ b/cicada_generator/lib/WHO/schedule/WHO Coded Observations.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="69">
   <si>
     <t xml:space="preserve">Observation Code</t>
   </si>
@@ -174,6 +174,51 @@
   </si>
   <si>
     <t xml:space="preserve">370388006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pregnant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Patient is pregnant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">77386006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chronic medical condition</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Patient has a chronic medical condition increasing influenza risk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27624003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WHO influenza priority - young child</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Child aged 6 months to 5 years (WHO influenza priority group)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">410601007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1026</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WHO influenza priority - older adult</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Older adult aged 65 years or older (WHO influenza priority group)</t>
   </si>
 </sst>
 </file>
@@ -186,6 +231,7 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
+    <font/>
     <font/>
     <font/>
   </fonts>
@@ -203,11 +249,13 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
   </cellXfs>
@@ -672,80 +720,184 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D10" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="F10" s="3" t="s">
+      <c r="D10" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="G10" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="H10" s="3" t="s">
+      <c r="G10" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="H10" s="1" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="D11" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="F11" s="3" t="s">
+      <c r="D11" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="G11" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="H11" s="3" t="s">
+      <c r="G11" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="H11" s="1" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="3" t="s">
+      <c r="A12" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C12" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D12" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="F12" s="3" t="s">
+      <c r="D12" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="G12" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="H12" s="3" t="s">
+      <c r="G12" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="H13" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="H14" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="H15" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="G16" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="H16" s="5" t="s">
         <v>44</v>
       </c>
     </row>

--- a/cicada_generator/lib/WHO/schedule/WHO Coded Observations.xlsx
+++ b/cicada_generator/lib/WHO/schedule/WHO Coded Observations.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="73">
   <si>
     <t xml:space="preserve">Observation Code</t>
   </si>
@@ -219,6 +219,18 @@
   </si>
   <si>
     <t xml:space="preserve">Older adult aged 65 years or older (WHO influenza priority group)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1027</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lives in HepA intermediate/high endemicity area</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Patient lives in a hepatitis A intermediate or high endemicity area</t>
+  </si>
+  <si>
+    <t xml:space="preserve">161152002</t>
   </si>
 </sst>
 </file>
@@ -231,6 +243,7 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
+    <font/>
     <font/>
     <font/>
     <font/>
@@ -249,11 +262,13 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
@@ -798,106 +813,132 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="5" t="s">
+      <c r="A13" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B13" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="C13" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="D13" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="F13" s="5" t="s">
+      <c r="D13" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="G13" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="H13" s="5" t="s">
+      <c r="G13" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="H13" s="1" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="5" t="s">
+      <c r="A14" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="B14" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="C14" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="D14" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="F14" s="5" t="s">
+      <c r="D14" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="G14" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="H14" s="5" t="s">
+      <c r="G14" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="H14" s="1" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="5" t="s">
+      <c r="A15" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="B15" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="C15" s="5" t="s">
+      <c r="C15" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D15" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="F15" s="5" t="s">
+      <c r="D15" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="G15" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="H15" s="5" t="s">
+      <c r="G15" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="H15" s="1" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="5" t="s">
+      <c r="A16" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B16" s="5" t="s">
+      <c r="B16" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="C16" s="5" t="s">
+      <c r="C16" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="D16" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="E16" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="F16" s="5" t="s">
+      <c r="D16" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="G16" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="H16" s="5" t="s">
+      <c r="G16" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="H17" s="7" t="s">
         <v>44</v>
       </c>
     </row>
